--- a/setting.xlsx
+++ b/setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18480B-F1BA-45D0-A52D-2D062A6A1E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A25A5-24DE-4CDF-96D3-22D911DF9D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1560" windowWidth="12975" windowHeight="12900" xr2:uid="{86C854CC-4CDD-4113-AB0C-2D5F21EEB41D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>month</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>weekend_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_single_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekday_weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE161835-7847-4598-A971-8CB01AC07EC4}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -426,7 +438,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -439,8 +451,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -452,6 +473,15 @@
       </c>
       <c r="D2">
         <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\LaCook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A25A5-24DE-4CDF-96D3-22D911DF9D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F3D11-5575-481C-84C8-273121686D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1560" windowWidth="12975" windowHeight="12900" xr2:uid="{86C854CC-4CDD-4113-AB0C-2D5F21EEB41D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86C854CC-4CDD-4113-AB0C-2D5F21EEB41D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>month</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>single_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,20 +429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE161835-7847-4598-A971-8CB01AC07EC4}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -460,13 +468,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -475,13 +486,16 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
